--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/incorrect_predictions_17.xlsx
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/incorrect_predictions_17.xlsx
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
